--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
@@ -686,16 +686,16 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>1758967500</v>
+        <v>-197707795</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="3">
-        <v>-446825264</v>
+        <v>553737605</v>
       </c>
       <c r="D4" s="3">
-        <v>-981518740</v>
+        <v>-1422368536</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -730,16 +730,16 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>-1629584243</v>
+        <v>-491778195</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="3">
-        <v>-445507712</v>
+        <v>1925488967</v>
       </c>
       <c r="D5" s="3">
-        <v>-773123988</v>
+        <v>417181438</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -774,16 +774,16 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-527730573</v>
+        <v>-1411522539</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="3">
-        <v>-600084579</v>
+        <v>1130140136</v>
       </c>
       <c r="D6" s="3">
-        <v>-392477947</v>
+        <v>498502262</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -818,16 +818,16 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>513503323</v>
+        <v>1708735878</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="3">
-        <v>-1903962988</v>
+        <v>-593267104</v>
       </c>
       <c r="D7" s="3">
-        <v>679003640</v>
+        <v>-41951286</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -862,16 +862,16 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>186747624</v>
+        <v>253189677</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="3">
-        <v>-594678200</v>
+        <v>437101228</v>
       </c>
       <c r="D8" s="3">
-        <v>-1586573444</v>
+        <v>1553275941</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>ExampleLobbyWindow</t>
+  </si>
+  <si>
+    <t>LoginWindow</t>
   </si>
   <si>
     <t>ExampleHeroListWindow</t>
@@ -528,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
@@ -730,25 +733,25 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>-491778195</v>
+        <v>-1425095840</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="3">
-        <v>1925488967</v>
+        <v>-1111317671</v>
       </c>
       <c r="D5" s="3">
-        <v>417181438</v>
+        <v>-1255526873</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G5" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -757,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
@@ -774,16 +777,16 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-1411522539</v>
+        <v>-491778195</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="3">
-        <v>1130140136</v>
+        <v>1925488967</v>
       </c>
       <c r="D6" s="3">
-        <v>498502262</v>
+        <v>417181438</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -792,7 +795,7 @@
         <v>200</v>
       </c>
       <c r="G6" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -818,22 +821,22 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>1708735878</v>
+        <v>-1411522539</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="3">
-        <v>-593267104</v>
+        <v>1130140136</v>
       </c>
       <c r="D7" s="3">
-        <v>-41951286</v>
+        <v>498502262</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -842,10 +845,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
@@ -862,45 +865,89 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>253189677</v>
+        <v>1708735878</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="3">
+        <v>-593267104</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-41951286</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>253189677</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3">
         <v>437101228</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="3">
         <v>1553275941</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>1</v>
       </c>
     </row>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
@@ -745,7 +745,7 @@
         <v>-1255526873</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3">
         <v>100</v>
@@ -757,10 +757,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
@@ -689,13 +689,13 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>-197707795</v>
+        <v>-1988875824</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="3">
-        <v>553737605</v>
+        <v>-1247648687</v>
       </c>
       <c r="D4" s="3">
         <v>-1422368536</v>
@@ -733,13 +733,13 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>-1425095840</v>
+        <v>1166481551</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="3">
-        <v>-1111317671</v>
+        <v>-1345210539</v>
       </c>
       <c r="D5" s="3">
         <v>-1255526873</v>
@@ -777,13 +777,13 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-491778195</v>
+        <v>-663156153</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="3">
-        <v>1925488967</v>
+        <v>597335385</v>
       </c>
       <c r="D6" s="3">
         <v>417181438</v>
@@ -821,13 +821,13 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>-1411522539</v>
+        <v>-217400921</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="3">
-        <v>1130140136</v>
+        <v>-948994899</v>
       </c>
       <c r="D7" s="3">
         <v>498502262</v>
@@ -865,13 +865,13 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>1708735878</v>
+        <v>-402447938</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="3">
-        <v>-593267104</v>
+        <v>-770095150</v>
       </c>
       <c r="D8" s="3">
         <v>-41951286</v>
@@ -909,13 +909,13 @@
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>253189677</v>
+        <v>-1003505261</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="3">
-        <v>437101228</v>
+        <v>-1796692520</v>
       </c>
       <c r="D9" s="3">
         <v>1553275941</v>
